--- a/documents/코드정의서.xlsx
+++ b/documents/코드정의서.xlsx
@@ -1,22 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeChung\Downloads\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AA5E63-206D-4D2D-980D-2CD4144715CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC68AC0-CB7A-9A4D-9466-D1D01924A0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="360" windowWidth="30075" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="코드정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="코드정의서" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">코드정의서!$A$1:$E$1</definedName>
+    <definedName name="_cp" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" hidden="1">#REF!</definedName>
+    <definedName name="_Key2" hidden="1">#REF!</definedName>
+    <definedName name="_Order1" hidden="1">255</definedName>
+    <definedName name="_Order2" hidden="1">255</definedName>
+    <definedName name="_Sort" hidden="1">#REF!</definedName>
+    <definedName name="가입설계_단체">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
+    <definedName name="구분">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
+    <definedName name="구분1">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
+    <definedName name="ㄴ">#REF!</definedName>
+    <definedName name="ㄴㄴ" hidden="1">#REF!</definedName>
+    <definedName name="ㄴㅇㅁㄹㄴㅇㄹ">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
+    <definedName name="ㅁㄴㅇㄹ" hidden="1">#REF!</definedName>
+    <definedName name="ㅁㅁ" hidden="1">#REF!</definedName>
+    <definedName name="버전">#REF!</definedName>
+    <definedName name="분류">#REF!</definedName>
+    <definedName name="상태">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
+    <definedName name="샘플">'[2]양식(정의서)'!#REF!</definedName>
+    <definedName name="손사_타영역">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
+    <definedName name="신규여부">[3]Sheet3!$A$1:$A$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">코드정의서!$A$1:$E$17</definedName>
+    <definedName name="sss" hidden="1">#REF!</definedName>
+    <definedName name="T01_컬럼정보_Query">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -51,16 +79,43 @@
     <t>코드명</t>
   </si>
   <si>
-    <t>코드대분류
-(그룹코드ID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>코드정의서</t>
+  </si>
+  <si>
+    <t>코드 대분류</t>
+  </si>
+  <si>
+    <t>SW_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리프트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우버</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lyf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ube</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="9">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,20 +124,62 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="-윤고딕330"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,12 +188,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -117,27 +244,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2 2" xfId="1" xr:uid="{E38918BB-BA43-D747-A8FF-778AF5D3B013}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,6 +349,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="표지"/>
+      <sheetName val="서명"/>
+      <sheetName val="개정이력"/>
+      <sheetName val="신계약_가입설계(개별)"/>
+      <sheetName val="신계약_가입설계(단체)"/>
+      <sheetName val="신계약_청약의뢰(개별)"/>
+      <sheetName val="신계약_청약의뢰(단체)"/>
+      <sheetName val="신계약_청약서출력"/>
+      <sheetName val="신계약_이미지스캔"/>
+      <sheetName val="신계약_영수입력"/>
+      <sheetName val="신계약_요율구득의뢰"/>
+      <sheetName val="신계약_요율구득처리"/>
+      <sheetName val="UW_인수심의"/>
+      <sheetName val="UW_이미지심사"/>
+      <sheetName val="사고접수_리콜"/>
+      <sheetName val="사고접수_사고접수"/>
+      <sheetName val="사고접수_상담접수"/>
+      <sheetName val="사고접수_상담조회"/>
+      <sheetName val="사고접수_증명서발급"/>
+      <sheetName val="사고조사_계약조사"/>
+      <sheetName val="사고조사_면책조사"/>
+      <sheetName val="사고조사_사고조사"/>
+      <sheetName val="피해자관리및추산_서류등록"/>
+      <sheetName val="피해자관리및추산__피해물관리"/>
+      <sheetName val="피해자관리_인추산"/>
+      <sheetName val="피해자관리및추산_피해자관리"/>
+      <sheetName val="작성가이드"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="표지(A4횡)"/>
+      <sheetName val="개정이력"/>
+      <sheetName val="양식(정의서)"/>
+      <sheetName val="양식(설계서)"/>
+      <sheetName val="작성가이드"/>
+      <sheetName val="샘플, IF_GW_0011"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="상품속성"/>
+      <sheetName val="담보제어유형"/>
+      <sheetName val="단체할인율entity"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="상품속성 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>신규</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>기존(유지)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>재검토</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>삭제</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,76 +745,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E875"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ED8346-FED2-3D4C-87E3-0BDDAAF6C6AD}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E910"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="72.125" style="2" customWidth="1"/>
-    <col min="10" max="22" width="7.625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="12.625" style="2"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="3" customWidth="1"/>
+    <col min="6" max="17" width="6.6640625" style="3" customWidth="1"/>
+    <col min="18" max="20" width="11" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="25.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -1327,9 +1802,46 @@
     <row r="873" ht="16.5" customHeight="1"/>
     <row r="874" ht="16.5" customHeight="1"/>
     <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{ED546495-1260-4139-B558-9657C8AF359A}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
